--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_001_APICasinoGamesBrokenData/2Pokies2goDataDuplicateGamesList.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_001_APICasinoGamesBrokenData/2Pokies2goDataDuplicateGamesList.xlsx
@@ -6,300 +6,309 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="brokenIMG" r:id="rId3" sheetId="1"/>
+    <sheet name="CopyGames" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>1  This game has duplicate Please check it :  Name =  Atlantis</t>
   </si>
   <si>
-    <t>2  This game has duplicate Please check it :  Name =  Baccarat</t>
-  </si>
-  <si>
-    <t>3  This game has duplicate Please check it :  Name =  Baccarat</t>
-  </si>
-  <si>
-    <t>4  This game has duplicate Please check it :  Name =  Baccarat</t>
-  </si>
-  <si>
-    <t>5  This game has duplicate Please check it :  Name =  Baccarat VIP</t>
-  </si>
-  <si>
-    <t>6  This game has duplicate Please check it :  Name =  Bier Party</t>
-  </si>
-  <si>
-    <t>7  This game has duplicate Please check it :  Name =  Black Jack</t>
-  </si>
-  <si>
-    <t>8  This game has duplicate Please check it :  Name =  Blackjack</t>
-  </si>
-  <si>
-    <t>9  This game has duplicate Please check it :  Name =  Blackjack VIP</t>
-  </si>
-  <si>
-    <t>10  This game has duplicate Please check it :  Name =  Bounty Belles</t>
-  </si>
-  <si>
-    <t>11  This game has duplicate Please check it :  Name =  Caligula</t>
-  </si>
-  <si>
-    <t>12  This game has duplicate Please check it :  Name =  Carol of the Elves</t>
-  </si>
-  <si>
-    <t>13  This game has duplicate Please check it :  Name =  ChineseNewYear</t>
-  </si>
-  <si>
-    <t>14  This game has duplicate Please check it :  Name =  Deuces Wild</t>
-  </si>
-  <si>
-    <t>15  This game has duplicate Please check it :  Name =  Deuces Wild</t>
-  </si>
-  <si>
-    <t>16  This game has duplicate Please check it :  Name =  Deuces Wild</t>
-  </si>
-  <si>
-    <t>17  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>18  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>19  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>20  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>21  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>22  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>23  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>24  This game has duplicate Please check it :  Name =  European Roulette VIP</t>
-  </si>
-  <si>
-    <t>25  This game has duplicate Please check it :  Name =  Faith</t>
-  </si>
-  <si>
-    <t>26  This game has duplicate Please check it :  Name =  Football</t>
-  </si>
-  <si>
-    <t>27  This game has duplicate Please check it :  Name =  Ghosts N Gold</t>
-  </si>
-  <si>
-    <t>28  This game has duplicate Please check it :  Name =  Golden Buffalo Double Up</t>
-  </si>
-  <si>
-    <t>29  This game has duplicate Please check it :  Name =  Golden Tiger</t>
-  </si>
-  <si>
-    <t>30  This game has duplicate Please check it :  Name =  Hades</t>
-  </si>
-  <si>
-    <t>31  This game has duplicate Please check it :  Name =  Hot Spin Deluxe</t>
-  </si>
-  <si>
-    <t>32  This game has duplicate Please check it :  Name =  Hot Spin Megaways</t>
-  </si>
-  <si>
-    <t>33  This game has duplicate Please check it :  Name =  Hyperburst</t>
-  </si>
-  <si>
-    <t>34  This game has duplicate Please check it :  Name =  Jacks or Better</t>
-  </si>
-  <si>
-    <t>35  This game has duplicate Please check it :  Name =  Joker Poker</t>
-  </si>
-  <si>
-    <t>36  This game has duplicate Please check it :  Name =  Joker Poker</t>
-  </si>
-  <si>
-    <t>37  This game has duplicate Please check it :  Name =  Joker Poker</t>
-  </si>
-  <si>
-    <t>38  This game has duplicate Please check it :  Name =  King of the Trident Deluxe</t>
-  </si>
-  <si>
-    <t>39  This game has duplicate Please check it :  Name =  King of the Trident Deluxe</t>
-  </si>
-  <si>
-    <t>40  This game has duplicate Please check it :  Name =  King of the Trident Deluxe</t>
-  </si>
-  <si>
-    <t>41  This game has duplicate Please check it :  Name =  Kings of Gold</t>
-  </si>
-  <si>
-    <t>42  This game has duplicate Please check it :  Name =  Legend of the Four Beasts</t>
-  </si>
-  <si>
-    <t>43  This game has duplicate Please check it :  Name =  Lost Boys Loot</t>
-  </si>
-  <si>
-    <t>44  This game has duplicate Please check it :  Name =  Lucky Clover</t>
-  </si>
-  <si>
-    <t>45  This game has duplicate Please check it :  Name =  Pearl Legend: Hold &amp; Win</t>
-  </si>
-  <si>
-    <t>46  This game has duplicate Please check it :  Name =  Power Strike Super Spin</t>
-  </si>
-  <si>
-    <t>47  This game has duplicate Please check it :  Name =  Prosperity Ox</t>
-  </si>
-  <si>
-    <t>48  This game has duplicate Please check it :  Name =  Queen of Gold 100,000</t>
-  </si>
-  <si>
-    <t>49  This game has duplicate Please check it :  Name =  Raging Dragons</t>
-  </si>
-  <si>
-    <t>50  This game has duplicate Please check it :  Name =  Raging Reindeer</t>
-  </si>
-  <si>
-    <t>51  This game has duplicate Please check it :  Name =  Red Dog</t>
-  </si>
-  <si>
-    <t>52  This game has duplicate Please check it :  Name =  Reel Desire</t>
-  </si>
-  <si>
-    <t>53  This game has duplicate Please check it :  Name =  Roo Riches</t>
-  </si>
-  <si>
-    <t>54  This game has duplicate Please check it :  Name =  Sea of Riches</t>
-  </si>
-  <si>
-    <t>55  This game has duplicate Please check it :  Name =  Sindbad</t>
-  </si>
-  <si>
-    <t>56  This game has duplicate Please check it :  Name =  Sparta</t>
-  </si>
-  <si>
-    <t>57  This game has duplicate Please check it :  Name =  Super Reel - Spin It Hot</t>
-  </si>
-  <si>
-    <t>58  This game has duplicate Please check it :  Name =  Syncronite</t>
-  </si>
-  <si>
-    <t>59  This game has duplicate Please check it :  Name =  The Ruby Megaways</t>
-  </si>
-  <si>
-    <t>60  This game has duplicate Please check it :  Name =  Thunder Shields</t>
-  </si>
-  <si>
-    <t>61  This game has duplicate Please check it :  Name =  Tomahawk</t>
-  </si>
-  <si>
-    <t>62  This game has duplicate Please check it :  Name =  Vampires</t>
-  </si>
-  <si>
-    <t>63  This game has duplicate Please check it :  Name =  Wild Ape</t>
-  </si>
-  <si>
-    <t>64  This game has duplicate Please check it :  Name =  Winterberries</t>
-  </si>
-  <si>
-    <t>65  This game has duplicate Please check it :  Name =  Wishing Wheel</t>
-  </si>
-  <si>
-    <t>66  This game has duplicate Please check it :  Name =  Aztec Gold MegaWays</t>
-  </si>
-  <si>
-    <t>67  This game has duplicate Please check it :  Name =  Bloodshot: Rising Spirit</t>
-  </si>
-  <si>
-    <t>68  This game has duplicate Please check it :  Name =  Book of Itza</t>
-  </si>
-  <si>
-    <t>69  This game has duplicate Please check it :  Name =  Dragon Stone</t>
-  </si>
-  <si>
-    <t>70  This game has duplicate Please check it :  Name =  Dragons of the North Deluxe</t>
-  </si>
-  <si>
-    <t>71  This game has duplicate Please check it :  Name =  Egyptian King</t>
-  </si>
-  <si>
-    <t>72  This game has duplicate Please check it :  Name =  Epic Riches</t>
-  </si>
-  <si>
-    <t>73  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>74  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>75  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>76  This game has duplicate Please check it :  Name =  Fishin' for Gold</t>
-  </si>
-  <si>
-    <t>77  This game has duplicate Please check it :  Name =  Force of the Gods</t>
-  </si>
-  <si>
-    <t>78  This game has duplicate Please check it :  Name =  Force of the Gods</t>
-  </si>
-  <si>
-    <t>79  This game has duplicate Please check it :  Name =  Force of the Gods</t>
-  </si>
-  <si>
-    <t>80  This game has duplicate Please check it :  Name =  Fruits</t>
-  </si>
-  <si>
-    <t>81  This game has duplicate Please check it :  Name =  Gladiators Go Wild</t>
-  </si>
-  <si>
-    <t>82  This game has duplicate Please check it :  Name =  Grand Loot</t>
-  </si>
-  <si>
-    <t>83  This game has duplicate Please check it :  Name =  Hot Wild 7s</t>
-  </si>
-  <si>
-    <t>84  This game has duplicate Please check it :  Name =  Jackpot Fortunes</t>
-  </si>
-  <si>
-    <t>85  This game has duplicate Please check it :  Name =  Luxor</t>
-  </si>
-  <si>
-    <t>86  This game has duplicate Please check it :  Name =  MegaBoy</t>
-  </si>
-  <si>
-    <t>87  This game has duplicate Please check it :  Name =  Merlin's Magic Mirror</t>
-  </si>
-  <si>
-    <t>88  This game has duplicate Please check it :  Name =  Mystery Fox Christmas Party</t>
-  </si>
-  <si>
-    <t>89  This game has duplicate Please check it :  Name =  Phoenix Kingdom</t>
-  </si>
-  <si>
-    <t>90  This game has duplicate Please check it :  Name =  Pyramid Pays</t>
-  </si>
-  <si>
-    <t>91  This game has duplicate Please check it :  Name =  ReelGems</t>
-  </si>
-  <si>
-    <t>92  This game has duplicate Please check it :  Name =  The Golden City</t>
-  </si>
-  <si>
-    <t>93  This game has duplicate Please check it :  Name =  The Great Wall</t>
-  </si>
-  <si>
-    <t>94  This game has duplicate Please check it :  Name =  Titan’s Riches</t>
-  </si>
-  <si>
-    <t>95  This game has duplicate Please check it :  Name =  Wild Fortunes</t>
-  </si>
-  <si>
-    <t>96  This game has duplicate Please check it :  Name =  Wild Fruit Super Wheel</t>
+    <t>2  This game has duplicate Please check it :  Name =  Bier Party</t>
+  </si>
+  <si>
+    <t>3  This game has duplicate Please check it :  Name =  Bounty Belles</t>
+  </si>
+  <si>
+    <t>4  This game has duplicate Please check it :  Name =  Caligula</t>
+  </si>
+  <si>
+    <t>5  This game has duplicate Please check it :  Name =  ChineseNewYear</t>
+  </si>
+  <si>
+    <t>6  This game has duplicate Please check it :  Name =  Deuces Wild</t>
+  </si>
+  <si>
+    <t>7  This game has duplicate Please check it :  Name =  Deuces Wild</t>
+  </si>
+  <si>
+    <t>8  This game has duplicate Please check it :  Name =  Faith</t>
+  </si>
+  <si>
+    <t>9  This game has duplicate Please check it :  Name =  Football</t>
+  </si>
+  <si>
+    <t>10  This game has duplicate Please check it :  Name =  Ghosts N Gold</t>
+  </si>
+  <si>
+    <t>11  This game has duplicate Please check it :  Name =  Golden Buffalo Double Up</t>
+  </si>
+  <si>
+    <t>12  This game has duplicate Please check it :  Name =  Golden Tiger</t>
+  </si>
+  <si>
+    <t>13  This game has duplicate Please check it :  Name =  Hot Spin Deluxe</t>
+  </si>
+  <si>
+    <t>14  This game has duplicate Please check it :  Name =  Hot Spin Megaways</t>
+  </si>
+  <si>
+    <t>15  This game has duplicate Please check it :  Name =  Hyperburst</t>
+  </si>
+  <si>
+    <t>16  This game has duplicate Please check it :  Name =  King of the Trident Deluxe</t>
+  </si>
+  <si>
+    <t>17  This game has duplicate Please check it :  Name =  Kings of Gold</t>
+  </si>
+  <si>
+    <t>18  This game has duplicate Please check it :  Name =  Legend of the Four Beasts</t>
+  </si>
+  <si>
+    <t>19  This game has duplicate Please check it :  Name =  Lost Boys Loot</t>
+  </si>
+  <si>
+    <t>20  This game has duplicate Please check it :  Name =  Lucky Clover</t>
+  </si>
+  <si>
+    <t>21  This game has duplicate Please check it :  Name =  Pearl Legend: Hold &amp; Win</t>
+  </si>
+  <si>
+    <t>22  This game has duplicate Please check it :  Name =  Power Strike Super Spin</t>
+  </si>
+  <si>
+    <t>23  This game has duplicate Please check it :  Name =  Prosperity Ox</t>
+  </si>
+  <si>
+    <t>24  This game has duplicate Please check it :  Name =  Queen of Gold 100,000</t>
+  </si>
+  <si>
+    <t>25  This game has duplicate Please check it :  Name =  Raging Dragons</t>
+  </si>
+  <si>
+    <t>26  This game has duplicate Please check it :  Name =  Raging Reindeer</t>
+  </si>
+  <si>
+    <t>27  This game has duplicate Please check it :  Name =  Red Dog</t>
+  </si>
+  <si>
+    <t>28  This game has duplicate Please check it :  Name =  Roo Riches</t>
+  </si>
+  <si>
+    <t>29  This game has duplicate Please check it :  Name =  Sea of Riches</t>
+  </si>
+  <si>
+    <t>30  This game has duplicate Please check it :  Name =  Sparta</t>
+  </si>
+  <si>
+    <t>31  This game has duplicate Please check it :  Name =  Super Reel - Spin It Hot</t>
+  </si>
+  <si>
+    <t>32  This game has duplicate Please check it :  Name =  The Ruby Megaways</t>
+  </si>
+  <si>
+    <t>33  This game has duplicate Please check it :  Name =  Thunder Shields</t>
+  </si>
+  <si>
+    <t>34  This game has duplicate Please check it :  Name =  Tomahawk</t>
+  </si>
+  <si>
+    <t>35  This game has duplicate Please check it :  Name =  Vampires</t>
+  </si>
+  <si>
+    <t>36  This game has duplicate Please check it :  Name =  Wild Ape</t>
+  </si>
+  <si>
+    <t>37  This game has duplicate Please check it :  Name =  Wishing Wheel</t>
+  </si>
+  <si>
+    <t>38  This game has duplicate Please check it :  Name =  Aztec Gold MegaWays</t>
+  </si>
+  <si>
+    <t>39  This game has duplicate Please check it :  Name =  Baccarat</t>
+  </si>
+  <si>
+    <t>40  This game has duplicate Please check it :  Name =  Black Jack</t>
+  </si>
+  <si>
+    <t>41  This game has duplicate Please check it :  Name =  Blackjack</t>
+  </si>
+  <si>
+    <t>42  This game has duplicate Please check it :  Name =  Blackjack VIP</t>
+  </si>
+  <si>
+    <t>43  This game has duplicate Please check it :  Name =  Bloodshot: Rising Spirit</t>
+  </si>
+  <si>
+    <t>44  This game has duplicate Please check it :  Name =  Book of Itza</t>
+  </si>
+  <si>
+    <t>45  This game has duplicate Please check it :  Name =  Buffalo Hunter</t>
+  </si>
+  <si>
+    <t>46  This game has duplicate Please check it :  Name =  Bushido Ways xNudge</t>
+  </si>
+  <si>
+    <t>47  This game has duplicate Please check it :  Name =  Deadwood</t>
+  </si>
+  <si>
+    <t>48  This game has duplicate Please check it :  Name =  Deuces Wild</t>
+  </si>
+  <si>
+    <t>49  This game has duplicate Please check it :  Name =  Dragon Stone</t>
+  </si>
+  <si>
+    <t>50  This game has duplicate Please check it :  Name =  Dragons of the North Deluxe</t>
+  </si>
+  <si>
+    <t>51  This game has duplicate Please check it :  Name =  East Coast vs West Coast</t>
+  </si>
+  <si>
+    <t>52  This game has duplicate Please check it :  Name =  Egyptian King</t>
+  </si>
+  <si>
+    <t>53  This game has duplicate Please check it :  Name =  El Paso Gunfight xNudge</t>
+  </si>
+  <si>
+    <t>54  This game has duplicate Please check it :  Name =  Epic Riches</t>
+  </si>
+  <si>
+    <t>55  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>56  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>57  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>58  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>59  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>60  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>61  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>62  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>63  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>64  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>65  This game has duplicate Please check it :  Name =  European Roulette VIP</t>
+  </si>
+  <si>
+    <t>66  This game has duplicate Please check it :  Name =  Fire In The Hole xBomb</t>
+  </si>
+  <si>
+    <t>67  This game has duplicate Please check it :  Name =  Fishin' for Gold</t>
+  </si>
+  <si>
+    <t>68  This game has duplicate Please check it :  Name =  Force of the Gods</t>
+  </si>
+  <si>
+    <t>69  This game has duplicate Please check it :  Name =  Fruits</t>
+  </si>
+  <si>
+    <t>70  This game has duplicate Please check it :  Name =  Fruits</t>
+  </si>
+  <si>
+    <t>71  This game has duplicate Please check it :  Name =  Fruits</t>
+  </si>
+  <si>
+    <t>72  This game has duplicate Please check it :  Name =  Gladiators Go Wild</t>
+  </si>
+  <si>
+    <t>73  This game has duplicate Please check it :  Name =  Grand Loot</t>
+  </si>
+  <si>
+    <t>74  This game has duplicate Please check it :  Name =  Hot Wild 7s</t>
+  </si>
+  <si>
+    <t>75  This game has duplicate Please check it :  Name =  Infectious 5 xWays</t>
+  </si>
+  <si>
+    <t>76  This game has duplicate Please check it :  Name =  Jackpot Fortunes</t>
+  </si>
+  <si>
+    <t>77  This game has duplicate Please check it :  Name =  Jacks or Better</t>
+  </si>
+  <si>
+    <t>78  This game has duplicate Please check it :  Name =  Joker Poker</t>
+  </si>
+  <si>
+    <t>79  This game has duplicate Please check it :  Name =  Joker Poker</t>
+  </si>
+  <si>
+    <t>80  This game has duplicate Please check it :  Name =  Joker Poker</t>
+  </si>
+  <si>
+    <t>81  This game has duplicate Please check it :  Name =  Luxor</t>
+  </si>
+  <si>
+    <t>82  This game has duplicate Please check it :  Name =  Merlin's Magic Mirror</t>
+  </si>
+  <si>
+    <t>83  This game has duplicate Please check it :  Name =  Monkey's Gold xPays</t>
+  </si>
+  <si>
+    <t>84  This game has duplicate Please check it :  Name =  Mystery Fox Christmas Party</t>
+  </si>
+  <si>
+    <t>85  This game has duplicate Please check it :  Name =  Oktoberfest</t>
+  </si>
+  <si>
+    <t>86  This game has duplicate Please check it :  Name =  Owls</t>
+  </si>
+  <si>
+    <t>87  This game has duplicate Please check it :  Name =  Phoenix Kingdom</t>
+  </si>
+  <si>
+    <t>88  This game has duplicate Please check it :  Name =  Pyramid Pays</t>
+  </si>
+  <si>
+    <t>89  This game has duplicate Please check it :  Name =  San Quentin xWays</t>
+  </si>
+  <si>
+    <t>90  This game has duplicate Please check it :  Name =  Starstruck</t>
+  </si>
+  <si>
+    <t>91  This game has duplicate Please check it :  Name =  The Golden City</t>
+  </si>
+  <si>
+    <t>92  This game has duplicate Please check it :  Name =  The Great Wall</t>
+  </si>
+  <si>
+    <t>93  This game has duplicate Please check it :  Name =  Titan’s Riches</t>
+  </si>
+  <si>
+    <t>94  This game has duplicate Please check it :  Name =  Tomb of Akhenaten</t>
+  </si>
+  <si>
+    <t>95  This game has duplicate Please check it :  Name =  Tombstone</t>
+  </si>
+  <si>
+    <t>96  This game has duplicate Please check it :  Name =  Wild Fortunes</t>
+  </si>
+  <si>
+    <t>97  This game has duplicate Please check it :  Name =  Wild Fruit Super Wheel</t>
+  </si>
+  <si>
+    <t>98  This game has duplicate Please check it :  Name =  Wixx</t>
+  </si>
+  <si>
+    <t>99  This game has duplicate Please check it :  Name =  xWays Hoarder xSplit</t>
   </si>
 </sst>
 </file>
@@ -344,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A96"/>
+  <dimension ref="A1:A99"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -833,6 +842,21 @@
         <v>95</v>
       </c>
     </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
